--- a/Tableau ICA.xlsx
+++ b/Tableau ICA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Université\Divers\Affaires_pedagogiques\Guide examens professionnels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Guide_Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Candidats: retraite, vie, prestations collectives, finance, gestion de risque</t>
   </si>
@@ -38,18 +38,6 @@
     <t>Parcours des examens</t>
   </si>
   <si>
-    <t>Crédits de l'ICA pour examens FM, MFE, MLC, C</t>
-  </si>
-  <si>
-    <t>Examens de la SOA: FM, MFE, MLC, C</t>
-  </si>
-  <si>
-    <t>Crédits de l'ICA pour les examens 2, 3F, 4</t>
-  </si>
-  <si>
-    <t>Examens 2, 3F, LC*/ST*, 4</t>
-  </si>
-  <si>
     <t>Examen P/1 de la SOA/CAS</t>
   </si>
   <si>
@@ -65,9 +53,6 @@
     <t>Cours en ligne 1 et 2</t>
   </si>
   <si>
-    <t>Examens S*, 5, 6-Canada</t>
-  </si>
-  <si>
     <t>Atelier sur le professionnalisme de l'ICA</t>
   </si>
   <si>
@@ -102,6 +87,24 @@
   </si>
   <si>
     <t>FICA (FCAS)</t>
+  </si>
+  <si>
+    <t>Examens 2, 3F</t>
+  </si>
+  <si>
+    <t>Crédits de l'ICA pour les examens 2, 3F</t>
+  </si>
+  <si>
+    <t>Examens MAS-1, MAS-2, 5, 6-Canada</t>
+  </si>
+  <si>
+    <t>Examens de la SOA: FM, IFM, LTAM, STAM</t>
+  </si>
+  <si>
+    <t>Examens SRM, PA</t>
+  </si>
+  <si>
+    <t>Crédits de l'ICA pour examens FM, IFM, LTAM, STAM</t>
   </si>
 </sst>
 </file>
@@ -346,28 +349,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -687,7 +690,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,14 +700,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -722,99 +725,101 @@
     </row>
     <row r="4" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="12"/>
       <c r="D8" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
@@ -822,7 +827,7 @@
     </row>
     <row r="14" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="11"/>
@@ -830,7 +835,7 @@
     </row>
     <row r="15" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -838,7 +843,7 @@
     </row>
     <row r="16" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="11"/>
@@ -846,26 +851,44 @@
     </row>
     <row r="17" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="8"/>
+      <c r="B18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B5:C5"/>
@@ -878,24 +901,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tableau ICA.xlsx
+++ b/Tableau ICA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Guide_Exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frere\Documents\GitHub\Guide_Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -349,28 +349,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -687,221 +687,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="19.7109375" customWidth="1"/>
+    <col min="1" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="2:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="D18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tableau ICA.xlsx
+++ b/Tableau ICA.xlsx
@@ -92,9 +92,6 @@
     <t>Examens 2, 3F</t>
   </si>
   <si>
-    <t>Crédits de l'ICA pour les examens 2, 3F</t>
-  </si>
-  <si>
     <t>Examens MAS-1, MAS-2, 5, 6-Canada</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Crédits de l'ICA pour examens FM, IFM, LTAM, STAM</t>
+  </si>
+  <si>
+    <t>Crédits de l'ICA pour les examens 2, 3F, MAS-2</t>
   </si>
 </sst>
 </file>
@@ -349,28 +349,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,7 +690,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,14 +700,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -723,15 +723,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>21</v>
@@ -769,11 +769,11 @@
     </row>
     <row r="8" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="12"/>
     </row>
@@ -860,17 +860,35 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A5:B5"/>
@@ -883,24 +901,6 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tableau ICA.xlsx
+++ b/Tableau ICA.xlsx
@@ -104,7 +104,7 @@
     <t>Crédits de l'ICA pour examens FM, IFM, LTAM, STAM</t>
   </si>
   <si>
-    <t>Crédits de l'ICA pour les examens 2, 3F, MAS-2</t>
+    <t>Crédits de l'ICA pour les examens 2, 3F</t>
   </si>
 </sst>
 </file>
@@ -349,28 +349,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,7 +690,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,14 +700,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -860,35 +860,17 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A5:B5"/>
@@ -901,6 +883,24 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
